--- a/data/142/STANOR/03013 Consumer Price Index by Divisions.xlsx
+++ b/data/142/STANOR/03013 Consumer Price Index by Divisions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="555">
   <x:si>
     <x:t>03013: Consumer Price Index, by consumption group, contents and month</x:t>
   </x:si>
@@ -1562,6 +1562,15 @@
   </x:si>
   <x:si>
     <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
   </x:si>
   <x:si>
     <x:t>01 Food and non-alcoholic beverages</x:t>
@@ -1610,13 +1619,13 @@
     <x:t>The following price indices for services are based on estimated values due to non-availability during the COVID-19 pandemic 2020M04: 06.2.2, 07.3.3, 09.4.2, 09.6.0, 11.2.0, 12.1.1, 12.4.0., 2020M05: 06.2.2, 07.3.3, 09.4.2, 09.6.0, 11.2.0, 2020M06-2020M12: 07.3.3.2, 09.6.0, 2021M01-M05: 07.3.3, 07.3.4, 09.6.0, 2021M06-M07: 07.3.3.2, 07.3.4, 09.6.0, 2021M08: 07.3.3.2, 09.6.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Consumer Price Index (2015=100):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211210 08:00</x:t>
+    <x:t>20220310 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -2063,23 +2072,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:SW59"/>
+  <x:dimension ref="A1:SZ59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.000625" style="0" customWidth="1"/>
-    <x:col min="3" max="517" width="10.040625" style="0" customWidth="1"/>
+    <x:col min="1" max="520" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:517">
+    <x:row r="1" spans="1:520">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:517">
+    <x:row r="3" spans="1:520">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3625,13 +3632,22 @@
       <x:c r="SW3" s="2" t="s">
         <x:v>515</x:v>
       </x:c>
+      <x:c r="SX3" s="2" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="SY3" s="2" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="SZ3" s="2" t="s">
+        <x:v>518</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:517">
+    <x:row r="4" spans="1:520">
       <x:c r="A4" s="2" t="s">
-        <x:v>516</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>27</x:v>
@@ -5178,13 +5194,22 @@
       <x:c r="SW4" s="3" t="n">
         <x:v>105.6</x:v>
       </x:c>
+      <x:c r="SX4" s="3" t="n">
+        <x:v>104.8</x:v>
+      </x:c>
+      <x:c r="SY4" s="3" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="SZ4" s="3" t="n">
+        <x:v>110.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:517">
+    <x:row r="5" spans="1:520">
       <x:c r="A5" s="2" t="s">
-        <x:v>518</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>12.3</x:v>
@@ -6731,13 +6756,22 @@
       <x:c r="SW5" s="3" t="n">
         <x:v>111.2</x:v>
       </x:c>
+      <x:c r="SX5" s="3" t="n">
+        <x:v>111.2</x:v>
+      </x:c>
+      <x:c r="SY5" s="3" t="n">
+        <x:v>113.4</x:v>
+      </x:c>
+      <x:c r="SZ5" s="3" t="n">
+        <x:v>114.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:517">
+    <x:row r="6" spans="1:520">
       <x:c r="A6" s="2" t="s">
-        <x:v>519</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>81.9</x:v>
@@ -8284,13 +8318,22 @@
       <x:c r="SW6" s="3" t="n">
         <x:v>101.6</x:v>
       </x:c>
+      <x:c r="SX6" s="3" t="n">
+        <x:v>101.8</x:v>
+      </x:c>
+      <x:c r="SY6" s="3" t="n">
+        <x:v>94.4</x:v>
+      </x:c>
+      <x:c r="SZ6" s="3" t="n">
+        <x:v>94.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:517">
+    <x:row r="7" spans="1:520">
       <x:c r="A7" s="2" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>520</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>517</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>19.5</x:v>
@@ -9837,13 +9880,22 @@
       <x:c r="SW7" s="3" t="n">
         <x:v>128.7</x:v>
       </x:c>
+      <x:c r="SX7" s="3" t="n">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="SY7" s="3" t="n">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="SZ7" s="3" t="n">
+        <x:v>126.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="8" spans="1:517">
+    <x:row r="8" spans="1:520">
       <x:c r="A8" s="2" t="s">
-        <x:v>521</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>36.3</x:v>
@@ -11390,13 +11442,22 @@
       <x:c r="SW8" s="3" t="n">
         <x:v>118.3</x:v>
       </x:c>
+      <x:c r="SX8" s="3" t="n">
+        <x:v>121.1</x:v>
+      </x:c>
+      <x:c r="SY8" s="3" t="n">
+        <x:v>120.8</x:v>
+      </x:c>
+      <x:c r="SZ8" s="3" t="n">
+        <x:v>123.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:517">
+    <x:row r="9" spans="1:520">
       <x:c r="A9" s="2" t="s">
-        <x:v>522</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>18.1</x:v>
@@ -12943,13 +13004,22 @@
       <x:c r="SW9" s="3" t="n">
         <x:v>115.4</x:v>
       </x:c>
+      <x:c r="SX9" s="3" t="n">
+        <x:v>115.6</x:v>
+      </x:c>
+      <x:c r="SY9" s="3" t="n">
+        <x:v>115.1</x:v>
+      </x:c>
+      <x:c r="SZ9" s="3" t="n">
+        <x:v>116.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:517">
+    <x:row r="10" spans="1:520">
       <x:c r="A10" s="2" t="s">
-        <x:v>523</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>21</x:v>
@@ -14496,13 +14566,22 @@
       <x:c r="SW10" s="3" t="n">
         <x:v>118</x:v>
       </x:c>
+      <x:c r="SX10" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="SY10" s="3" t="n">
+        <x:v>118.6</x:v>
+      </x:c>
+      <x:c r="SZ10" s="3" t="n">
+        <x:v>120</x:v>
+      </x:c>
     </x:row>
-    <x:row r="11" spans="1:517">
+    <x:row r="11" spans="1:520">
       <x:c r="A11" s="2" t="s">
-        <x:v>524</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>166.2</x:v>
@@ -16049,13 +16128,22 @@
       <x:c r="SW11" s="3" t="n">
         <x:v>117</x:v>
       </x:c>
+      <x:c r="SX11" s="3" t="n">
+        <x:v>116.7</x:v>
+      </x:c>
+      <x:c r="SY11" s="3" t="n">
+        <x:v>116.8</x:v>
+      </x:c>
+      <x:c r="SZ11" s="3" t="n">
+        <x:v>117.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="12" spans="1:517">
+    <x:row r="12" spans="1:520">
       <x:c r="A12" s="2" t="s">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>31.4</x:v>
@@ -17602,13 +17690,22 @@
       <x:c r="SW12" s="3" t="n">
         <x:v>121.5</x:v>
       </x:c>
+      <x:c r="SX12" s="3" t="n">
+        <x:v>121.8</x:v>
+      </x:c>
+      <x:c r="SY12" s="3" t="n">
+        <x:v>121.6</x:v>
+      </x:c>
+      <x:c r="SZ12" s="3" t="n">
+        <x:v>122.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="13" spans="1:517">
+    <x:row r="13" spans="1:520">
       <x:c r="A13" s="2" t="s">
-        <x:v>526</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>14.8</x:v>
@@ -19155,13 +19252,22 @@
       <x:c r="SW13" s="3" t="n">
         <x:v>127.7</x:v>
       </x:c>
+      <x:c r="SX13" s="3" t="n">
+        <x:v>127.7</x:v>
+      </x:c>
+      <x:c r="SY13" s="3" t="n">
+        <x:v>128.1</x:v>
+      </x:c>
+      <x:c r="SZ13" s="3" t="n">
+        <x:v>128.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:517">
+    <x:row r="14" spans="1:520">
       <x:c r="A14" s="2" t="s">
-        <x:v>527</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>17.1</x:v>
@@ -20708,13 +20814,22 @@
       <x:c r="SW14" s="3" t="n">
         <x:v>122.8</x:v>
       </x:c>
+      <x:c r="SX14" s="3" t="n">
+        <x:v>122.3</x:v>
+      </x:c>
+      <x:c r="SY14" s="3" t="n">
+        <x:v>122.5</x:v>
+      </x:c>
+      <x:c r="SZ14" s="3" t="n">
+        <x:v>122.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="15" spans="1:517">
+    <x:row r="15" spans="1:520">
       <x:c r="A15" s="2" t="s">
-        <x:v>528</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>517</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>20.4</x:v>
@@ -22261,148 +22376,161 @@
       <x:c r="SW15" s="3" t="n">
         <x:v>114.7</x:v>
       </x:c>
+      <x:c r="SX15" s="3" t="n">
+        <x:v>114.9</x:v>
+      </x:c>
+      <x:c r="SY15" s="3" t="n">
+        <x:v>114.9</x:v>
+      </x:c>
+      <x:c r="SZ15" s="3" t="n">
+        <x:v>115.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:517">
+    <x:row r="17" spans="1:520">
       <x:c r="A17" s="4" t="s">
-        <x:v>529</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:517">
+    <x:row r="18" spans="1:520">
       <x:c r="A18" s="4" t="s">
-        <x:v>530</x:v>
+        <x:v>533</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:517">
+    <x:row r="20" spans="1:520">
       <x:c r="A20" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>534</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:517">
+    <x:row r="21" spans="1:520">
       <x:c r="A21" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:517">
+    <x:row r="22" spans="1:520">
       <x:c r="A22" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:517">
+    <x:row r="24" spans="1:520">
       <x:c r="A24" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:517">
+    <x:row r="25" spans="1:520">
       <x:c r="A25" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:520">
+      <x:c r="A27" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:520">
+      <x:c r="A28" s="0" t="s">
         <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:517">
-      <x:c r="A27" s="0" t="s">
-        <x:v>536</x:v>
+    <x:row r="29" spans="1:520">
+      <x:c r="A29" s="0" t="s">
+        <x:v>540</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:517">
-      <x:c r="A28" s="0" t="s">
-        <x:v>532</x:v>
+    <x:row r="30" spans="1:520">
+      <x:c r="A30" s="0" t="s">
+        <x:v>541</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:517">
-      <x:c r="A29" s="0" t="s">
-        <x:v>537</x:v>
+    <x:row r="31" spans="1:520">
+      <x:c r="A31" s="0" t="s">
+        <x:v>542</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:517">
-      <x:c r="A30" s="0" t="s">
-        <x:v>538</x:v>
+    <x:row r="35" spans="1:520">
+      <x:c r="A35" s="0" t="s">
+        <x:v>543</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:517">
-      <x:c r="A31" s="0" t="s">
-        <x:v>539</x:v>
+    <x:row r="37" spans="1:520">
+      <x:c r="A37" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:517">
-      <x:c r="A35" s="0" t="s">
-        <x:v>540</x:v>
+    <x:row r="38" spans="1:520">
+      <x:c r="A38" s="0" t="s">
+        <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:517">
-      <x:c r="A37" s="0" t="s">
-        <x:v>541</x:v>
+    <x:row r="39" spans="1:520">
+      <x:c r="A39" s="0" t="s">
+        <x:v>545</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:517">
-      <x:c r="A38" s="0" t="s">
-        <x:v>532</x:v>
+    <x:row r="40" spans="1:520">
+      <x:c r="A40" s="0" t="s">
+        <x:v>546</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:517">
-      <x:c r="A39" s="0" t="s">
-        <x:v>542</x:v>
+    <x:row r="41" spans="1:520">
+      <x:c r="A41" s="0" t="s">
+        <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:517">
-      <x:c r="A40" s="0" t="s">
-        <x:v>543</x:v>
+    <x:row r="42" spans="1:520">
+      <x:c r="A42" s="0" t="s">
+        <x:v>547</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:517">
-      <x:c r="A41" s="0" t="s">
-        <x:v>532</x:v>
+    <x:row r="44" spans="1:520">
+      <x:c r="A44" s="0" t="s">
+        <x:v>548</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:517">
-      <x:c r="A42" s="0" t="s">
-        <x:v>544</x:v>
+    <x:row r="45" spans="1:520">
+      <x:c r="A45" s="0" t="s">
+        <x:v>520</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:517">
-      <x:c r="A44" s="0" t="s">
-        <x:v>545</x:v>
+    <x:row r="46" spans="1:520">
+      <x:c r="A46" s="0" t="s">
+        <x:v>549</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:517">
-      <x:c r="A45" s="0" t="s">
-        <x:v>517</x:v>
+    <x:row r="48" spans="1:520">
+      <x:c r="A48" s="0" t="s">
+        <x:v>535</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:517">
-      <x:c r="A46" s="0" t="s">
-        <x:v>546</x:v>
+    <x:row r="49" spans="1:520">
+      <x:c r="A49" s="0" t="s">
+        <x:v>550</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:517">
-      <x:c r="A48" s="0" t="s">
-        <x:v>532</x:v>
+    <x:row r="55" spans="1:520">
+      <x:c r="A55" s="0" t="s">
+        <x:v>551</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:517">
-      <x:c r="A49" s="0" t="s">
-        <x:v>547</x:v>
+    <x:row r="56" spans="1:520">
+      <x:c r="A56" s="0" t="s">
+        <x:v>552</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:517">
-      <x:c r="A55" s="0" t="s">
-        <x:v>548</x:v>
+    <x:row r="58" spans="1:520">
+      <x:c r="A58" s="0" t="s">
+        <x:v>553</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:517">
-      <x:c r="A56" s="0" t="s">
-        <x:v>549</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:517">
-      <x:c r="A58" s="0" t="s">
-        <x:v>550</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:517">
+    <x:row r="59" spans="1:520">
       <x:c r="A59" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>554</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A17:SZ17"/>
+    <x:mergeCell ref="A18:SZ18"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
